--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AVERAGE_10_9.xlsx
@@ -369,187 +369,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
       <c r="B3">
-        <v>2.794415499126957</v>
+        <v>0.07975464681371225</v>
       </c>
       <c r="C3">
-        <v>-0.1634715480938964</v>
+        <v>-4.700509864312973</v>
       </c>
       <c r="D3">
-        <v>-2.503026633163052</v>
+        <v>-3.017636378339217</v>
       </c>
       <c r="E3">
         <v>-1.31761954538927</v>
@@ -695,28 +692,25 @@
       <c r="AZ3">
         <v>-1.31761954538927</v>
       </c>
-      <c r="BA3">
-        <v>-1.31761954538927</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
       <c r="B4">
-        <v>1.929662451756009</v>
+        <v>-0.1399818631928951</v>
       </c>
       <c r="C4">
-        <v>1.79986265093306</v>
+        <v>-4.391509335919141</v>
       </c>
       <c r="D4">
-        <v>-0.8854380943849716</v>
+        <v>-3.229247082222797</v>
       </c>
       <c r="E4">
-        <v>0.6888449045935552</v>
+        <v>-0.01655958389530365</v>
       </c>
       <c r="F4">
-        <v>0.1692474513351083</v>
+        <v>0.003352386816724007</v>
       </c>
       <c r="G4">
         <v>2.771597318554297</v>
@@ -856,31 +850,25 @@
       <c r="AZ4">
         <v>2.771597318554297</v>
       </c>
-      <c r="BA4">
-        <v>2.771597318554297</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>-0.3103476474035083</v>
-      </c>
       <c r="D5">
-        <v>-2.218321983005667</v>
+        <v>-3.304481657602698</v>
       </c>
       <c r="E5">
-        <v>1.532898100704427</v>
+        <v>-1.426203430357909</v>
       </c>
       <c r="F5">
-        <v>-0.03788152406275502</v>
+        <v>-1.461031976610316</v>
       </c>
       <c r="G5">
-        <v>3.609425886625339</v>
+        <v>3.579142225970444</v>
       </c>
       <c r="H5">
-        <v>3.628343599698969</v>
+        <v>3.925837669383347</v>
       </c>
       <c r="I5">
         <v>1.799362536952542</v>
@@ -1014,31 +1002,25 @@
       <c r="AZ5">
         <v>1.799362536952542</v>
       </c>
-      <c r="BA5">
-        <v>1.799362536952542</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>1.0892423430376</v>
-      </c>
       <c r="F6">
-        <v>0.3618709043640589</v>
+        <v>-1.43036035661499</v>
       </c>
       <c r="G6">
-        <v>-1.675983833549222</v>
+        <v>0.8577584548236317</v>
       </c>
       <c r="H6">
-        <v>2.15807511757542</v>
+        <v>2.641604203902781</v>
       </c>
       <c r="I6">
-        <v>1.169339034160743</v>
+        <v>-0.289184878867832</v>
       </c>
       <c r="J6">
-        <v>0.6019339353565023</v>
+        <v>0.2381541440396262</v>
       </c>
       <c r="K6">
         <v>2.123182427147152</v>
@@ -1166,31 +1148,25 @@
       <c r="AZ6">
         <v>2.123182427147152</v>
       </c>
-      <c r="BA6">
-        <v>2.123182427147152</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>1.277667191469334</v>
-      </c>
       <c r="H7">
-        <v>2.627768965131905</v>
+        <v>2.792069574291456</v>
       </c>
       <c r="I7">
-        <v>2.659314723144024</v>
+        <v>1.821104206634194</v>
       </c>
       <c r="J7">
-        <v>2.814292328656265</v>
+        <v>1.60268309892857</v>
       </c>
       <c r="K7">
-        <v>4.818619766830312</v>
+        <v>5.963492031746176</v>
       </c>
       <c r="L7">
-        <v>4.990675812925582</v>
+        <v>4.993892964711621</v>
       </c>
       <c r="M7">
         <v>7.317297369612819</v>
@@ -1312,31 +1288,25 @@
       <c r="AZ7">
         <v>7.317297369612819</v>
       </c>
-      <c r="BA7">
-        <v>7.317297369612819</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>1.423575078814565</v>
-      </c>
       <c r="J8">
-        <v>1.277551254953391</v>
+        <v>1.560945935618463</v>
       </c>
       <c r="K8">
-        <v>2.906157307553836</v>
+        <v>4.059266849997001</v>
       </c>
       <c r="L8">
-        <v>2.942581135514977</v>
+        <v>2.260118192030736</v>
       </c>
       <c r="M8">
-        <v>6.33415002955966</v>
+        <v>7.523777575896196</v>
       </c>
       <c r="N8">
-        <v>5.969804644981291</v>
+        <v>6.711795724673664</v>
       </c>
       <c r="O8">
         <v>4.260319658857736</v>
@@ -1452,31 +1422,25 @@
       <c r="AZ8">
         <v>4.260319658857736</v>
       </c>
-      <c r="BA8">
-        <v>4.260319658857736</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>4.038794034641202</v>
-      </c>
       <c r="L9">
-        <v>4.110668188518263</v>
+        <v>2.268053155954486</v>
       </c>
       <c r="M9">
-        <v>3.586987532670949</v>
+        <v>4.921660622329105</v>
       </c>
       <c r="N9">
-        <v>3.878230798954285</v>
+        <v>6.409878804372982</v>
       </c>
       <c r="O9">
-        <v>1.29595620404217</v>
+        <v>2.532215190177589</v>
       </c>
       <c r="P9">
-        <v>0.5177688839717476</v>
+        <v>0.5121603413743347</v>
       </c>
       <c r="Q9">
         <v>-0.05262415810141086</v>
@@ -1586,31 +1550,25 @@
       <c r="AZ9">
         <v>-0.05262415810141086</v>
       </c>
-      <c r="BA9">
-        <v>-0.05262415810141086</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>5.578558913710663</v>
-      </c>
       <c r="N10">
-        <v>5.555223160690259</v>
+        <v>6.652469936617145</v>
       </c>
       <c r="O10">
-        <v>3.42596297413984</v>
+        <v>5.215795625989261</v>
       </c>
       <c r="P10">
-        <v>3.075158037444581</v>
+        <v>3.290935868252554</v>
       </c>
       <c r="Q10">
-        <v>1.191891383640931</v>
+        <v>2.051185924063259</v>
       </c>
       <c r="R10">
-        <v>2.170064026854179</v>
+        <v>1.745565778643887</v>
       </c>
       <c r="S10">
         <v>1.459778471779982</v>
@@ -1714,31 +1672,25 @@
       <c r="AZ10">
         <v>1.459778471779982</v>
       </c>
-      <c r="BA10">
-        <v>1.459778471779982</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>2.76275821580223</v>
-      </c>
       <c r="P11">
-        <v>2.367041597905817</v>
+        <v>3.309637709230717</v>
       </c>
       <c r="Q11">
-        <v>1.999626938280241</v>
+        <v>2.840854095773526</v>
       </c>
       <c r="R11">
-        <v>2.605949513341166</v>
+        <v>0.7985845180024986</v>
       </c>
       <c r="S11">
-        <v>2.283682996337033</v>
+        <v>0.4575538530338541</v>
       </c>
       <c r="T11">
-        <v>2.91162218972072</v>
+        <v>2.687500891103922</v>
       </c>
       <c r="U11">
         <v>3.002208343813528</v>
@@ -1836,37 +1788,31 @@
       <c r="AZ11">
         <v>3.002208343813528</v>
       </c>
-      <c r="BA11">
-        <v>3.002208343813528</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>1.512800301290995</v>
-      </c>
       <c r="R12">
-        <v>2.590730081186199</v>
+        <v>0.6768288812109668</v>
       </c>
       <c r="S12">
-        <v>2.793289702145763</v>
+        <v>0.1992978909398646</v>
       </c>
       <c r="T12">
-        <v>2.91103534844559</v>
+        <v>1.922191950024699</v>
       </c>
       <c r="U12">
-        <v>3.141368102642828</v>
+        <v>2.600569166164624</v>
       </c>
       <c r="V12">
-        <v>3.609713327497399</v>
+        <v>3.339205815020496</v>
       </c>
       <c r="W12">
-        <v>3.737230524212798</v>
+        <v>3.654655474034474</v>
       </c>
       <c r="X12">
-        <v>3.951369010811856</v>
+        <v>4.036117574265741</v>
       </c>
       <c r="Y12">
         <v>4.020433260014977</v>
@@ -1952,46 +1898,37 @@
       <c r="AZ12">
         <v>4.020433260014977</v>
       </c>
-      <c r="BA12">
-        <v>4.020433260014977</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>2.494417544901628</v>
-      </c>
-      <c r="S13">
-        <v>2.207308935472674</v>
-      </c>
       <c r="T13">
-        <v>2.821516951149361</v>
+        <v>1.852325089269979</v>
       </c>
       <c r="U13">
-        <v>3.016819787229474</v>
+        <v>2.217217717421827</v>
       </c>
       <c r="V13">
-        <v>2.681588411688174</v>
+        <v>2.646788941483735</v>
       </c>
       <c r="W13">
-        <v>3.011320934469008</v>
+        <v>3.068403604789749</v>
       </c>
       <c r="X13">
-        <v>2.814393891325029</v>
+        <v>3.628675245064317</v>
       </c>
       <c r="Y13">
-        <v>3.151661456848687</v>
+        <v>3.605726003451304</v>
       </c>
       <c r="Z13">
-        <v>3.414265482440926</v>
+        <v>3.813466308501412</v>
       </c>
       <c r="AA13">
-        <v>3.498193990879561</v>
+        <v>3.712036718632117</v>
       </c>
       <c r="AB13">
-        <v>3.473437336652374</v>
+        <v>3.551357200054261</v>
       </c>
       <c r="AC13">
         <v>3.53224976671227</v>
@@ -2065,52 +2002,40 @@
       <c r="AZ13">
         <v>3.53224976671227</v>
       </c>
-      <c r="BA13">
-        <v>3.53224976671227</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>3.121124374623663</v>
-      </c>
-      <c r="U14">
-        <v>3.300883241600383</v>
-      </c>
-      <c r="V14">
-        <v>2.535635243126988</v>
-      </c>
       <c r="W14">
-        <v>2.637488927515808</v>
+        <v>3.010470130271137</v>
       </c>
       <c r="X14">
-        <v>2.841516658941856</v>
+        <v>3.259983363993291</v>
       </c>
       <c r="Y14">
-        <v>2.577304619443699</v>
+        <v>3.296463213734779</v>
       </c>
       <c r="Z14">
-        <v>2.521821437172833</v>
+        <v>3.884173085820986</v>
       </c>
       <c r="AA14">
-        <v>2.473437657144562</v>
+        <v>3.908921577463587</v>
       </c>
       <c r="AB14">
-        <v>2.371660794972863</v>
+        <v>3.524277826276134</v>
       </c>
       <c r="AC14">
-        <v>2.492295186821214</v>
+        <v>3.490656491795074</v>
       </c>
       <c r="AD14">
-        <v>2.15810425970917</v>
+        <v>2.732790977059629</v>
       </c>
       <c r="AE14">
-        <v>2.068108937069524</v>
+        <v>2.849400388885992</v>
       </c>
       <c r="AF14">
-        <v>-0.6257981900360754</v>
+        <v>-0.985458715495402</v>
       </c>
       <c r="AG14">
         <v>-0.985458715495402</v>
@@ -2172,58 +2097,40 @@
       <c r="AZ14">
         <v>-0.985458715495402</v>
       </c>
-      <c r="BA14">
-        <v>-0.985458715495402</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>2.905506582474837</v>
-      </c>
-      <c r="W15">
-        <v>3.099927982210238</v>
-      </c>
-      <c r="X15">
-        <v>3.177336867742331</v>
-      </c>
-      <c r="Y15">
-        <v>2.46048248889319</v>
-      </c>
-      <c r="Z15">
-        <v>2.220932789361152</v>
-      </c>
       <c r="AA15">
-        <v>2.167670286234991</v>
+        <v>3.950347314142233</v>
       </c>
       <c r="AB15">
-        <v>2.207173254521999</v>
+        <v>3.648977694024791</v>
       </c>
       <c r="AC15">
-        <v>1.646610545736693</v>
+        <v>3.685313717535621</v>
       </c>
       <c r="AD15">
-        <v>1.702828994658501</v>
+        <v>3.412957258051663</v>
       </c>
       <c r="AE15">
-        <v>1.339443560148146</v>
+        <v>3.535456592693387</v>
       </c>
       <c r="AF15">
-        <v>0.02822784966425296</v>
+        <v>-3.099271113627677</v>
       </c>
       <c r="AG15">
-        <v>-1.158677136920438</v>
+        <v>-2.347097924577757</v>
       </c>
       <c r="AH15">
-        <v>-0.5625294724799446</v>
+        <v>-5.285337128797329</v>
       </c>
       <c r="AI15">
-        <v>-3.230460817064207</v>
+        <v>-4.741003096464214</v>
       </c>
       <c r="AJ15">
-        <v>-4.251052026148628</v>
+        <v>-4.365687260408224</v>
       </c>
       <c r="AK15">
         <v>-4.365687260408224</v>
@@ -2273,61 +2180,40 @@
       <c r="AZ15">
         <v>-4.365687260408224</v>
       </c>
-      <c r="BA15">
-        <v>-4.365687260408224</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>2.574315362377289</v>
-      </c>
-      <c r="Z16">
-        <v>2.562407432124303</v>
-      </c>
-      <c r="AA16">
-        <v>2.556000311085604</v>
-      </c>
-      <c r="AB16">
-        <v>2.525788519949024</v>
-      </c>
-      <c r="AC16">
-        <v>1.496881353009161</v>
-      </c>
-      <c r="AD16">
-        <v>1.694296813984009</v>
-      </c>
       <c r="AE16">
-        <v>1.629686186121027</v>
+        <v>3.508868582430846</v>
       </c>
       <c r="AF16">
-        <v>1.619782579158202</v>
+        <v>0.07095532091387913</v>
       </c>
       <c r="AG16">
-        <v>2.456157844175344</v>
+        <v>-0.1565465363420615</v>
       </c>
       <c r="AH16">
-        <v>3.178750629078753</v>
+        <v>-2.69436300797079</v>
       </c>
       <c r="AI16">
-        <v>4.74442712952825</v>
+        <v>-2.156795995006056</v>
       </c>
       <c r="AJ16">
-        <v>2.656212438505845</v>
+        <v>-0.9191921099315992</v>
       </c>
       <c r="AK16">
-        <v>2.982321066053917</v>
+        <v>-0.1803381976702711</v>
       </c>
       <c r="AL16">
-        <v>3.094432991283247</v>
+        <v>1.871837441670499</v>
       </c>
       <c r="AM16">
-        <v>3.41788144952242</v>
+        <v>1.194925448553708</v>
       </c>
       <c r="AN16">
-        <v>1.495530390347999</v>
+        <v>1.27347919322387</v>
       </c>
       <c r="AO16">
         <v>1.27347919322387</v>
@@ -2365,61 +2251,43 @@
       <c r="AZ16">
         <v>1.27347919322387</v>
       </c>
-      <c r="BA16">
-        <v>1.27347919322387</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>1.83915572102098</v>
-      </c>
-      <c r="AD17">
-        <v>1.811820461872138</v>
-      </c>
-      <c r="AE17">
-        <v>1.633300070291677</v>
-      </c>
-      <c r="AF17">
-        <v>0.3071129274195616</v>
-      </c>
-      <c r="AG17">
-        <v>2.257237375640031</v>
-      </c>
       <c r="AH17">
-        <v>2.059057776028594</v>
+        <v>-1.89286697317308</v>
       </c>
       <c r="AI17">
-        <v>1.937440955395164</v>
+        <v>-1.937045172389718</v>
       </c>
       <c r="AJ17">
-        <v>1.388548717051186</v>
+        <v>-1.824487515646256</v>
       </c>
       <c r="AK17">
-        <v>2.26181103369234</v>
+        <v>-1.96738848373067</v>
       </c>
       <c r="AL17">
-        <v>3.709256662779725</v>
+        <v>-0.8573220257725445</v>
       </c>
       <c r="AM17">
-        <v>4.518635225266698</v>
+        <v>-2.068675356622807</v>
       </c>
       <c r="AN17">
-        <v>2.320052410719797</v>
+        <v>-2.137023292796481</v>
       </c>
       <c r="AO17">
-        <v>-1.359183478082948</v>
+        <v>-1.152671696465724</v>
       </c>
       <c r="AP17">
-        <v>-1.770033892097977</v>
+        <v>-0.507642354784088</v>
       </c>
       <c r="AQ17">
-        <v>-0.6902932880100465</v>
+        <v>-1.084365158506884</v>
       </c>
       <c r="AR17">
-        <v>-1.396072416567873</v>
+        <v>-1.339436245206127</v>
       </c>
       <c r="AS17">
         <v>-1.339436245206127</v>
@@ -2445,61 +2313,43 @@
       <c r="AZ17">
         <v>-1.339436245206127</v>
       </c>
-      <c r="BA17">
-        <v>-1.339436245206127</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>2.213620378726788</v>
-      </c>
-      <c r="AH18">
-        <v>2.610416778758373</v>
-      </c>
-      <c r="AI18">
-        <v>2.179993174715689</v>
-      </c>
-      <c r="AJ18">
-        <v>0.890977499942136</v>
-      </c>
-      <c r="AK18">
-        <v>2.058050235820175</v>
-      </c>
       <c r="AL18">
-        <v>2.29686889447267</v>
+        <v>-1.461464090310793</v>
       </c>
       <c r="AM18">
-        <v>3.014134262744617</v>
+        <v>-2.197497829006645</v>
       </c>
       <c r="AN18">
-        <v>1.437806261771213</v>
+        <v>-2.674188284733892</v>
       </c>
       <c r="AO18">
-        <v>2.424398292823859</v>
+        <v>-0.5008759058252599</v>
       </c>
       <c r="AP18">
-        <v>1.627576987871993</v>
+        <v>0.07646803116447831</v>
       </c>
       <c r="AQ18">
-        <v>2.32542493162331</v>
+        <v>-1.089896342664354</v>
       </c>
       <c r="AR18">
-        <v>-3.455348590137297</v>
+        <v>-1.277727682704721</v>
       </c>
       <c r="AS18">
-        <v>-2.765539321179955</v>
+        <v>-2.785556326028149</v>
       </c>
       <c r="AT18">
-        <v>-3.192473321073452</v>
+        <v>-2.87408779878463</v>
       </c>
       <c r="AU18">
-        <v>-2.92816293250372</v>
+        <v>-3.40787540386569</v>
       </c>
       <c r="AV18">
-        <v>-3.39661216620909</v>
+        <v>-3.451527003230626</v>
       </c>
       <c r="AW18">
         <v>-3.451527003230626</v>
@@ -2513,173 +2363,88 @@
       <c r="AZ18">
         <v>-3.451527003230626</v>
       </c>
-      <c r="BA18">
-        <v>-3.451527003230626</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>2.849992723907335</v>
-      </c>
-      <c r="AL19">
-        <v>3.479464952554112</v>
-      </c>
-      <c r="AM19">
-        <v>4.125217580302332</v>
-      </c>
-      <c r="AN19">
-        <v>2.148304186541194</v>
-      </c>
-      <c r="AO19">
-        <v>2.599913004672616</v>
-      </c>
       <c r="AP19">
-        <v>2.337862417976333</v>
+        <v>-0.08815021972816695</v>
       </c>
       <c r="AQ19">
-        <v>2.577692526489739</v>
+        <v>-0.8703448702657268</v>
       </c>
       <c r="AR19">
-        <v>-1.390622874876313</v>
+        <v>0.07721345580697925</v>
       </c>
       <c r="AS19">
-        <v>0.09436028892164661</v>
+        <v>-0.6863115373258788</v>
       </c>
       <c r="AT19">
-        <v>0.4266478655134076</v>
+        <v>-1.155307395925487</v>
       </c>
       <c r="AU19">
-        <v>0.6927922959721888</v>
+        <v>-2.191935020614488</v>
       </c>
       <c r="AV19">
-        <v>-0.3369494081789437</v>
+        <v>-2.998472503487815</v>
       </c>
       <c r="AW19">
-        <v>-1.123002263566031</v>
+        <v>-2.452009576682213</v>
       </c>
       <c r="AX19">
-        <v>-1.510559672577028</v>
+        <v>-2.164008261629446</v>
       </c>
       <c r="AY19">
-        <v>-1.657630308694935</v>
+        <v>-1.853660925652212</v>
       </c>
       <c r="AZ19">
-        <v>-1.67392582565723</v>
-      </c>
-      <c r="BA19">
         <v>-1.75044229618867</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>1.343460690969822</v>
-      </c>
-      <c r="AP20">
-        <v>0.8329290289207147</v>
-      </c>
-      <c r="AQ20">
-        <v>1.539533176834884</v>
-      </c>
-      <c r="AR20">
-        <v>-2.093034802586002</v>
-      </c>
-      <c r="AS20">
-        <v>0.5029237023806754</v>
-      </c>
       <c r="AT20">
-        <v>0.4565833992175916</v>
+        <v>-1.187892669869473</v>
       </c>
       <c r="AU20">
-        <v>1.187924830910969</v>
+        <v>-1.841569468248938</v>
       </c>
       <c r="AV20">
-        <v>0.8461784325530575</v>
+        <v>-2.923113274870115</v>
       </c>
       <c r="AW20">
-        <v>1.056399611690195</v>
+        <v>-2.440246029655901</v>
       </c>
       <c r="AX20">
-        <v>0.5198971871075209</v>
+        <v>-2.337170009804157</v>
       </c>
       <c r="AY20">
-        <v>0.4486578513538175</v>
+        <v>-1.878672029998096</v>
       </c>
       <c r="AZ20">
-        <v>1.204607811081226</v>
-      </c>
-      <c r="BA20">
-        <v>0.7295772846297677</v>
+        <v>-1.760724207457021</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>-0.7352716516441982</v>
-      </c>
-      <c r="AT21">
-        <v>-0.7869205535448565</v>
-      </c>
-      <c r="AU21">
-        <v>-0.3489999547360179</v>
-      </c>
-      <c r="AV21">
-        <v>-0.9869022883377543</v>
-      </c>
-      <c r="AW21">
-        <v>1.005480064500386</v>
-      </c>
       <c r="AX21">
-        <v>0.5434772144153888</v>
+        <v>-2.433207997606113</v>
       </c>
       <c r="AY21">
-        <v>0.5503752294844233</v>
+        <v>-2.238303895464766</v>
       </c>
       <c r="AZ21">
-        <v>1.903706680019468</v>
-      </c>
-      <c r="BA21">
-        <v>2.342200249095283</v>
+        <v>-2.546230689156992</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>0.5134406156019233</v>
-      </c>
-      <c r="AX22">
-        <v>0.03073175363270675</v>
-      </c>
-      <c r="AY22">
-        <v>-0.04341979710753563</v>
-      </c>
-      <c r="AZ22">
-        <v>0.6808804886353492</v>
-      </c>
-      <c r="BA22">
-        <v>2.403526819519342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>1.910815645575914</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AVERAGE_10_9.xlsx
@@ -2368,7 +2368,7 @@
         <v>4.479055418855871</v>
       </c>
       <c r="AG17">
-        <v>2.133862376612439</v>
+        <v>2.407619904801606</v>
       </c>
       <c r="AH17">
         <v>1.666553973046048</v>
@@ -2451,19 +2451,19 @@
         <v>4.888255652935936</v>
       </c>
       <c r="AG18">
-        <v>0.273062749117492</v>
+        <v>1.314298916225654</v>
       </c>
       <c r="AH18">
-        <v>-0.9999522486825452</v>
+        <v>-1.376301649685419</v>
       </c>
       <c r="AI18">
-        <v>-2.991914460776179</v>
+        <v>0.3994749385743512</v>
       </c>
       <c r="AJ18">
-        <v>2.922623512367206</v>
+        <v>2.944732456202548</v>
       </c>
       <c r="AK18">
-        <v>1.773820722495745</v>
+        <v>1.614781041096625</v>
       </c>
       <c r="AL18">
         <v>1.879266440112803</v>
@@ -2522,31 +2522,31 @@
         <v>4.12294193961491</v>
       </c>
       <c r="AG19">
-        <v>2.413808766667369</v>
+        <v>2.775848202764419</v>
       </c>
       <c r="AH19">
-        <v>1.55208780315359</v>
+        <v>1.731249154528713</v>
       </c>
       <c r="AI19">
-        <v>-0.7897024150736676</v>
+        <v>1.894543511868663</v>
       </c>
       <c r="AJ19">
-        <v>2.761298099516418</v>
+        <v>2.952888094518125</v>
       </c>
       <c r="AK19">
-        <v>1.707328096006822</v>
+        <v>1.616170623326796</v>
       </c>
       <c r="AL19">
-        <v>-0.1343977949472275</v>
+        <v>-0.5015683214423805</v>
       </c>
       <c r="AM19">
-        <v>-0.05874878927536464</v>
+        <v>-1.647049671756329</v>
       </c>
       <c r="AN19">
-        <v>-0.2939924376199055</v>
+        <v>0.7712591263790092</v>
       </c>
       <c r="AO19">
-        <v>-2.404913754290983</v>
+        <v>-2.3670536889845</v>
       </c>
       <c r="AP19">
         <v>-2.620683231370946</v>
@@ -2589,38 +2589,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>0.1536601069926702</v>
-      </c>
       <c r="AJ20">
-        <v>2.616569492168375</v>
+        <v>2.842245206075944</v>
       </c>
       <c r="AK20">
-        <v>1.281594903795558</v>
+        <v>1.890501236336872</v>
       </c>
       <c r="AL20">
-        <v>1.117123255195773</v>
+        <v>0.6188720259791669</v>
       </c>
       <c r="AM20">
-        <v>1.647170385765651</v>
+        <v>0.5113886578309135</v>
       </c>
       <c r="AN20">
-        <v>1.109922826784815</v>
+        <v>2.690914239437681</v>
       </c>
       <c r="AO20">
-        <v>-2.467583266971451</v>
+        <v>-1.23388274936691</v>
       </c>
       <c r="AP20">
-        <v>-2.83913279674276</v>
+        <v>-3.531225750971478</v>
       </c>
       <c r="AQ20">
-        <v>-3.938880009788048</v>
+        <v>-4.823846530890464</v>
       </c>
       <c r="AR20">
-        <v>-2.429883624035745</v>
+        <v>-1.733020510269734</v>
       </c>
       <c r="AS20">
-        <v>-2.901570548279864</v>
+        <v>-2.690210378056679</v>
       </c>
       <c r="AT20">
         <v>-3.036556262700274</v>
@@ -2651,38 +2648,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>1.198872906040016</v>
-      </c>
       <c r="AN21">
-        <v>0.9791232333122624</v>
+        <v>1.664347518540765</v>
       </c>
       <c r="AO21">
-        <v>-2.147597818549007</v>
+        <v>-0.3452347200403882</v>
       </c>
       <c r="AP21">
-        <v>-1.064729941506237</v>
+        <v>-2.55976780494318</v>
       </c>
       <c r="AQ21">
-        <v>-0.6223811084860253</v>
+        <v>-1.599355436867833</v>
       </c>
       <c r="AR21">
-        <v>-0.8739913853863412</v>
+        <v>1.276886232005281</v>
       </c>
       <c r="AS21">
-        <v>-1.444783760697688</v>
+        <v>-0.5080092691693849</v>
       </c>
       <c r="AT21">
-        <v>-1.803491225663911</v>
+        <v>-0.6127369048507636</v>
       </c>
       <c r="AU21">
-        <v>-2.786207191231715</v>
+        <v>-3.632744220111905</v>
       </c>
       <c r="AV21">
-        <v>-1.060428249734879</v>
+        <v>-0.5744163079740239</v>
       </c>
       <c r="AW21">
-        <v>-2.859191689251428</v>
+        <v>-2.862797582711474</v>
       </c>
       <c r="AX21">
         <v>-2.953443685011514</v>
@@ -2701,78 +2695,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>-0.8325541753586352</v>
-      </c>
       <c r="AR22">
-        <v>-1.574335062806909</v>
+        <v>0.340541823644247</v>
       </c>
       <c r="AS22">
-        <v>-2.022767271886838</v>
+        <v>-1.558218844613901</v>
       </c>
       <c r="AT22">
-        <v>-2.920325640429045</v>
+        <v>-1.802404442893735</v>
       </c>
       <c r="AU22">
-        <v>-2.423357831382655</v>
+        <v>-3.888017676031608</v>
       </c>
       <c r="AV22">
-        <v>-1.285332554730334</v>
+        <v>-0.6956477387308868</v>
       </c>
       <c r="AW22">
-        <v>-3.927752965551978</v>
+        <v>-2.931248208044457</v>
       </c>
       <c r="AX22">
-        <v>-2.75492543068685</v>
+        <v>-3.846731480588816</v>
       </c>
       <c r="AY22">
-        <v>-0.8799002368073738</v>
+        <v>-1.265401163425972</v>
       </c>
       <c r="AZ22">
-        <v>0.1432745330888219</v>
+        <v>-0.1892239049850031</v>
       </c>
       <c r="BA22">
-        <v>-1.131442475565558</v>
+        <v>-1.201318493118486</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>-2.540291098923209</v>
-      </c>
       <c r="AV23">
-        <v>-1.583740653418153</v>
+        <v>-1.443039577388472</v>
       </c>
       <c r="AW23">
-        <v>-4.234544860756417</v>
+        <v>-2.615515430291959</v>
       </c>
       <c r="AX23">
-        <v>-3.172421042617202</v>
+        <v>-4.237512751019878</v>
       </c>
       <c r="AY23">
-        <v>-2.26429946512674</v>
+        <v>-2.649371313321569</v>
       </c>
       <c r="AZ23">
-        <v>-0.484131235569496</v>
+        <v>-1.765469626114691</v>
       </c>
       <c r="BA23">
-        <v>-2.567308877837815</v>
+        <v>-2.375407956079445</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>-2.355491913212293</v>
-      </c>
       <c r="AZ24">
-        <v>-0.7532761609928218</v>
+        <v>-2.020655721617404</v>
       </c>
       <c r="BA24">
-        <v>-2.354834861751975</v>
+        <v>-1.7068273702042</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AVERAGE_10_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2233 +535,1906 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="B3">
+        <v>3.945929059618214</v>
+      </c>
+      <c r="C3">
+        <v>5.080273296954396</v>
+      </c>
+      <c r="D3">
+        <v>2.807231216534301</v>
+      </c>
+      <c r="E3">
+        <v>-3.942037578692492</v>
+      </c>
+      <c r="F3">
+        <v>-0.9140166223623458</v>
+      </c>
+      <c r="G3">
+        <v>-1.172517689227226</v>
+      </c>
+      <c r="H3">
+        <v>-1.770819286696002</v>
+      </c>
+      <c r="I3">
+        <v>-2.631732184580982</v>
+      </c>
+      <c r="J3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="K3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="L3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="M3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="N3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="O3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="P3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="Q3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="R3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="S3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="T3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="U3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="V3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="W3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="X3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="Y3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="Z3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AA3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AB3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AC3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AD3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AE3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AF3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AG3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AH3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AI3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AJ3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AK3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AL3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AM3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AN3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AO3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AP3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AQ3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AR3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AS3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AT3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AU3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AV3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AW3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AX3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AY3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AZ3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="BA3">
+        <v>-3.712113773657133</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>4.930115226412335</v>
+        <v>40543</v>
       </c>
       <c r="C4">
-        <v>4.680314326616597</v>
+        <v>4.226833560512633</v>
       </c>
       <c r="D4">
-        <v>4.717522427777077</v>
+        <v>4.830388333631364</v>
       </c>
       <c r="E4">
-        <v>4.717522427777077</v>
+        <v>-1.648748515828491</v>
       </c>
       <c r="F4">
-        <v>3.33720699899116</v>
+        <v>1.821983295885099</v>
       </c>
       <c r="G4">
-        <v>3.33720699899116</v>
+        <v>-2.839753013810498</v>
       </c>
       <c r="H4">
-        <v>3.33720699899116</v>
+        <v>2.585942866987878</v>
       </c>
       <c r="I4">
-        <v>3.33720699899116</v>
+        <v>2.504381985397752</v>
       </c>
       <c r="J4">
-        <v>3.33720699899116</v>
+        <v>1.62008141490082</v>
       </c>
       <c r="K4">
-        <v>3.33720699899116</v>
+        <v>1.62008141490082</v>
       </c>
       <c r="L4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="M4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="N4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="O4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="P4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="Q4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="R4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="S4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="T4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="U4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="V4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="W4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="X4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="Y4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="Z4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AA4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AB4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AC4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AD4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AE4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AF4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AG4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AH4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AI4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AJ4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AK4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AL4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AM4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AN4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AO4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AP4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AQ4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AR4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AS4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AT4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AU4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AV4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AW4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AX4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AY4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AZ4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="BA4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B5">
-        <v>1.402909115503936</v>
-      </c>
-      <c r="C5">
-        <v>2.319409367208825</v>
-      </c>
-      <c r="D5">
-        <v>1.457587285166628</v>
+        <v>40908</v>
       </c>
       <c r="E5">
-        <v>1.24900865781854</v>
+        <v>-1.059815400760267</v>
       </c>
       <c r="F5">
-        <v>0.6130849409560657</v>
+        <v>0.03383538703924938</v>
       </c>
       <c r="G5">
-        <v>0.6130849409560657</v>
+        <v>-1.632723506456923</v>
       </c>
       <c r="H5">
-        <v>-0.4029460988799416</v>
+        <v>2.722861752007866</v>
       </c>
       <c r="I5">
-        <v>-0.4029460988799416</v>
+        <v>4.960109259035428</v>
       </c>
       <c r="J5">
-        <v>-0.4029460988799416</v>
+        <v>4.253963781362402</v>
       </c>
       <c r="K5">
-        <v>-0.4029460988799416</v>
+        <v>4.173723649544514</v>
       </c>
       <c r="L5">
-        <v>-0.4029460988799416</v>
+        <v>4.453070210728716</v>
       </c>
       <c r="M5">
-        <v>-0.4029460988799416</v>
+        <v>4.453070210728716</v>
       </c>
       <c r="N5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="O5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="P5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="Q5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="R5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="S5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="T5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="U5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="V5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="W5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="X5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="Y5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="Z5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AA5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AB5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AC5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AD5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AE5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AF5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AG5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AH5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AI5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AJ5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AK5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AL5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AM5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AN5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AO5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AP5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AQ5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AR5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AS5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AT5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AU5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AV5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AW5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AX5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AY5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AZ5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="BA5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B6">
-        <v>3.945929059618214</v>
-      </c>
-      <c r="C6">
-        <v>5.080273296954374</v>
-      </c>
-      <c r="D6">
-        <v>2.807231216534278</v>
-      </c>
-      <c r="E6">
-        <v>-3.942037578692481</v>
-      </c>
-      <c r="F6">
-        <v>-0.9140166223623569</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-1.172517689227215</v>
+        <v>-0.6975245639095129</v>
       </c>
       <c r="H6">
-        <v>-1.770819286696013</v>
+        <v>-0.1196467005631585</v>
       </c>
       <c r="I6">
-        <v>-2.631732184580982</v>
+        <v>4.506881698240095</v>
       </c>
       <c r="J6">
-        <v>-3.712113773657133</v>
+        <v>2.878414118480799</v>
       </c>
       <c r="K6">
-        <v>-3.712113773657133</v>
+        <v>2.134646894829806</v>
       </c>
       <c r="L6">
-        <v>-3.712113773657133</v>
+        <v>1.752870900283909</v>
       </c>
       <c r="M6">
-        <v>-3.712113773657133</v>
+        <v>1.425327874655236</v>
       </c>
       <c r="N6">
-        <v>-3.712113773657133</v>
+        <v>2.337267913147589</v>
       </c>
       <c r="O6">
-        <v>-3.712113773657133</v>
+        <v>2.45956484535661</v>
       </c>
       <c r="P6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="Q6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="R6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="S6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="T6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="U6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="V6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="W6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="X6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="Y6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="Z6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AA6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AB6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AC6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AD6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AE6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AF6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AG6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AH6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AI6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AJ6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AK6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AL6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AM6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AN6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AO6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AP6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AQ6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AR6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AS6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AT6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AU6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AV6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AW6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AX6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AY6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AZ6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="BA6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="C7">
-        <v>4.226833560512633</v>
-      </c>
-      <c r="D7">
-        <v>4.830388333631341</v>
-      </c>
-      <c r="E7">
-        <v>-1.648748515828502</v>
-      </c>
-      <c r="F7">
-        <v>1.821983295885121</v>
-      </c>
-      <c r="G7">
-        <v>-2.839753013810475</v>
-      </c>
-      <c r="H7">
-        <v>2.585942866987878</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>2.504381985397774</v>
+        <v>3.193525155272714</v>
       </c>
       <c r="J7">
-        <v>1.62008141490082</v>
+        <v>3.012550720313567</v>
       </c>
       <c r="K7">
-        <v>1.62008141490082</v>
+        <v>2.531943146540772</v>
       </c>
       <c r="L7">
-        <v>2.363997455008682</v>
+        <v>3.144721336271927</v>
       </c>
       <c r="M7">
-        <v>2.363997455008682</v>
+        <v>-2.700325749999499</v>
       </c>
       <c r="N7">
-        <v>2.363997455008682</v>
+        <v>-1.479696720105184</v>
       </c>
       <c r="O7">
-        <v>2.363997455008682</v>
+        <v>-1.188888712978431</v>
       </c>
       <c r="P7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="Q7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="R7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="S7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="T7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="U7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="V7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="W7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="X7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="Y7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="Z7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AA7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AB7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AC7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AD7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AE7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AF7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AG7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AH7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AI7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AJ7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AK7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AL7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AM7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AN7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AO7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AP7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AQ7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AR7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AS7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AT7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AU7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AV7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AW7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AX7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AY7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AZ7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="BA7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E8">
-        <v>-1.059815400760256</v>
-      </c>
-      <c r="F8">
-        <v>0.03383538703924938</v>
-      </c>
-      <c r="G8">
-        <v>-1.632723506456935</v>
-      </c>
-      <c r="H8">
-        <v>2.722861752007866</v>
-      </c>
-      <c r="I8">
-        <v>4.960109259035406</v>
-      </c>
-      <c r="J8">
-        <v>4.253963781362402</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>4.173723649544492</v>
+        <v>3.073012170068812</v>
       </c>
       <c r="L8">
-        <v>4.453070210728693</v>
+        <v>4.385769167074871</v>
       </c>
       <c r="M8">
-        <v>4.453070210728693</v>
+        <v>-0.3858735870725494</v>
       </c>
       <c r="N8">
-        <v>6.087058041562377</v>
+        <v>2.238623952069552</v>
       </c>
       <c r="O8">
-        <v>6.087058041562377</v>
+        <v>5.469647210234974</v>
       </c>
       <c r="P8">
-        <v>6.087058041562377</v>
+        <v>3.900127535411246</v>
       </c>
       <c r="Q8">
-        <v>6.087058041562377</v>
+        <v>3.948953894481644</v>
       </c>
       <c r="R8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="S8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="T8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="U8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="V8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="W8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="X8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="Y8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="Z8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AA8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AB8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AC8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AD8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AE8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AF8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AG8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AH8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AI8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AJ8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AK8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AL8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AM8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AN8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AO8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AP8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AQ8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AR8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AS8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AT8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AU8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AV8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AW8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AX8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AY8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AZ8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="BA8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>-0.6975245639095018</v>
-      </c>
-      <c r="H9">
-        <v>-0.1196467005631474</v>
-      </c>
-      <c r="I9">
-        <v>4.506881698240095</v>
-      </c>
-      <c r="J9">
-        <v>2.878414118480799</v>
-      </c>
-      <c r="K9">
-        <v>2.134646894829806</v>
-      </c>
-      <c r="L9">
-        <v>1.752870900283909</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>1.425327874655236</v>
+        <v>0.154648952802483</v>
       </c>
       <c r="N9">
-        <v>2.337267913147567</v>
+        <v>0.1635668350657316</v>
       </c>
       <c r="O9">
-        <v>2.459564845356588</v>
+        <v>3.061326532789521</v>
       </c>
       <c r="P9">
-        <v>3.831642495756782</v>
+        <v>-0.6155071485167807</v>
       </c>
       <c r="Q9">
-        <v>3.831642495756782</v>
+        <v>0.950153436409007</v>
       </c>
       <c r="R9">
-        <v>3.831642495756782</v>
+        <v>0.03947433952959933</v>
       </c>
       <c r="S9">
-        <v>3.831642495756782</v>
+        <v>-0.3952646468157739</v>
       </c>
       <c r="T9">
-        <v>3.831642495756782</v>
+        <v>-0.5740767529984647</v>
       </c>
       <c r="U9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="V9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="W9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="X9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="Y9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="Z9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AA9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AB9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AC9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AD9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AE9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AF9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AG9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AH9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AI9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AJ9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AK9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AL9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AM9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AN9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AO9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AP9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AQ9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AR9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AS9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AT9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AU9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AV9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AW9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AX9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AY9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AZ9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="BA9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>3.193525155272692</v>
-      </c>
-      <c r="J10">
-        <v>3.012550720313567</v>
-      </c>
-      <c r="K10">
-        <v>2.531943146540772</v>
-      </c>
-      <c r="L10">
-        <v>3.144721336271927</v>
-      </c>
-      <c r="M10">
-        <v>-2.700325749999488</v>
-      </c>
-      <c r="N10">
-        <v>-1.479696720105139</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>-1.188888712978442</v>
+        <v>2.304766170237582</v>
       </c>
       <c r="P10">
-        <v>-0.492746714819392</v>
+        <v>1.006988359245931</v>
       </c>
       <c r="Q10">
-        <v>-0.492746714819392</v>
+        <v>2.074800935750787</v>
       </c>
       <c r="R10">
-        <v>-0.492746714819392</v>
+        <v>1.182212550358064</v>
       </c>
       <c r="S10">
-        <v>-0.492746714819392</v>
+        <v>3.458696398997096</v>
       </c>
       <c r="T10">
-        <v>-0.492746714819392</v>
+        <v>2.192778679161966</v>
       </c>
       <c r="U10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="V10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="W10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="X10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="Y10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="Z10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AA10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AB10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AC10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AD10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AE10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AF10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AG10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AH10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AI10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AJ10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AK10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AL10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AM10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AN10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AO10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AP10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AQ10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AR10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AS10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AT10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AU10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AV10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AW10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AX10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AY10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AZ10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="BA10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>3.07301217006879</v>
-      </c>
-      <c r="L11">
-        <v>4.385769167074893</v>
-      </c>
-      <c r="M11">
-        <v>-0.3858735870725938</v>
-      </c>
-      <c r="N11">
-        <v>2.238623952069552</v>
-      </c>
-      <c r="O11">
-        <v>5.469647210234996</v>
-      </c>
-      <c r="P11">
-        <v>3.900127535411246</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>3.948953894481622</v>
+        <v>1.760017295574934</v>
       </c>
       <c r="R11">
-        <v>4.13564488769782</v>
+        <v>2.637121291726308</v>
       </c>
       <c r="S11">
-        <v>4.13564488769782</v>
+        <v>2.610227683091315</v>
       </c>
       <c r="T11">
-        <v>4.13564488769782</v>
+        <v>-0.5835597102573087</v>
       </c>
       <c r="U11">
-        <v>4.13564488769782</v>
+        <v>2.77241330895972</v>
       </c>
       <c r="V11">
-        <v>4.13564488769782</v>
+        <v>3.408364488606752</v>
       </c>
       <c r="W11">
-        <v>4.13564488769782</v>
+        <v>2.964724359563808</v>
       </c>
       <c r="X11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="Y11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="Z11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AA11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AB11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AC11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AD11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AE11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AF11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AG11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AH11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AI11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AJ11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AK11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AL11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AM11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AN11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AO11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AP11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AQ11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AR11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AS11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AT11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AU11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AV11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AW11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AX11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AY11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AZ11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="BA11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>0.154648952802483</v>
-      </c>
-      <c r="N12">
-        <v>0.1635668350657316</v>
-      </c>
-      <c r="O12">
-        <v>3.061326532789543</v>
-      </c>
-      <c r="P12">
-        <v>-0.6155071485167585</v>
-      </c>
-      <c r="Q12">
-        <v>0.950153436409007</v>
-      </c>
-      <c r="R12">
-        <v>0.03947433952959933</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>-0.3952646468157517</v>
+        <v>2.165490234005385</v>
       </c>
       <c r="T12">
-        <v>-0.5740767529984425</v>
+        <v>-0.622644815972806</v>
       </c>
       <c r="U12">
-        <v>-0.8017097776176652</v>
+        <v>2.755099409670958</v>
       </c>
       <c r="V12">
-        <v>-0.8017097776176652</v>
+        <v>2.34299484087257</v>
       </c>
       <c r="W12">
-        <v>-0.8017097776176652</v>
+        <v>1.376958470962353</v>
       </c>
       <c r="X12">
-        <v>-0.8017097776176652</v>
+        <v>3.14581984265847</v>
       </c>
       <c r="Y12">
-        <v>-0.8017097776176652</v>
+        <v>2.594480907596486</v>
       </c>
       <c r="Z12">
-        <v>-0.8017097776176652</v>
+        <v>2.799070570134488</v>
       </c>
       <c r="AA12">
-        <v>-0.8017097776176652</v>
+        <v>2.127568629379395</v>
       </c>
       <c r="AB12">
-        <v>-0.8017097776176652</v>
+        <v>2.213463536809535</v>
       </c>
       <c r="AC12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AD12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AE12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AF12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AG12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AH12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AI12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AJ12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AK12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AL12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AM12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AN12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AO12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AP12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AQ12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AR12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AS12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AT12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AU12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AV12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AW12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AX12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AY12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AZ12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="BA12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>2.304766170237538</v>
-      </c>
-      <c r="P13">
-        <v>1.006988359245908</v>
-      </c>
-      <c r="Q13">
-        <v>2.074800935750787</v>
-      </c>
-      <c r="R13">
-        <v>1.182212550358064</v>
-      </c>
-      <c r="S13">
-        <v>3.458696398997052</v>
-      </c>
-      <c r="T13">
-        <v>2.192778679161944</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>2.496356089727536</v>
+        <v>2.325987129928708</v>
       </c>
       <c r="V13">
-        <v>2.496356089727536</v>
+        <v>2.484672112662656</v>
       </c>
       <c r="W13">
-        <v>2.496356089727536</v>
+        <v>2.554746761760573</v>
       </c>
       <c r="X13">
-        <v>2.496356089727536</v>
+        <v>3.875106770584158</v>
       </c>
       <c r="Y13">
-        <v>2.496356089727536</v>
+        <v>2.97885695339557</v>
       </c>
       <c r="Z13">
-        <v>2.496356089727536</v>
+        <v>3.056075254340018</v>
       </c>
       <c r="AA13">
-        <v>2.496356089727536</v>
+        <v>3.665688413913704</v>
       </c>
       <c r="AB13">
-        <v>2.496356089727536</v>
+        <v>4.520465362328063</v>
       </c>
       <c r="AC13">
-        <v>2.496356089727536</v>
+        <v>4.143226503463815</v>
       </c>
       <c r="AD13">
-        <v>2.496356089727536</v>
+        <v>4.195393191694419</v>
       </c>
       <c r="AE13">
-        <v>2.496356089727536</v>
+        <v>4.197154982163109</v>
       </c>
       <c r="AF13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AG13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AH13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AI13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AJ13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AK13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AL13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AM13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AN13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AO13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AP13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AQ13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AR13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AS13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AT13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AU13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AV13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AW13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AX13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AY13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AZ13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="BA13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>1.760017295574956</v>
-      </c>
-      <c r="R14">
-        <v>2.63712129172633</v>
-      </c>
-      <c r="S14">
-        <v>2.610227683091337</v>
-      </c>
-      <c r="T14">
-        <v>-0.5835597102573198</v>
-      </c>
-      <c r="U14">
-        <v>2.772413308959698</v>
-      </c>
-      <c r="V14">
-        <v>3.40836448860673</v>
-      </c>
-      <c r="W14">
-        <v>2.964724359563786</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>2.95568145425118</v>
+        <v>3.576394102512137</v>
       </c>
       <c r="Y14">
-        <v>2.95568145425118</v>
+        <v>2.792583623342715</v>
       </c>
       <c r="Z14">
-        <v>2.95568145425118</v>
+        <v>2.427451345440979</v>
       </c>
       <c r="AA14">
-        <v>2.95568145425118</v>
+        <v>3.126710782028064</v>
       </c>
       <c r="AB14">
-        <v>2.95568145425118</v>
+        <v>4.124307769579483</v>
       </c>
       <c r="AC14">
-        <v>2.95568145425118</v>
+        <v>2.872814227731846</v>
       </c>
       <c r="AD14">
-        <v>2.95568145425118</v>
+        <v>2.652948310315506</v>
       </c>
       <c r="AE14">
-        <v>2.95568145425118</v>
+        <v>2.017172445889925</v>
       </c>
       <c r="AF14">
-        <v>2.95568145425118</v>
+        <v>4.479055418855871</v>
       </c>
       <c r="AG14">
-        <v>2.95568145425118</v>
+        <v>2.407619904801606</v>
       </c>
       <c r="AH14">
-        <v>2.95568145425118</v>
+        <v>1.666553973046025</v>
       </c>
       <c r="AI14">
-        <v>2.95568145425118</v>
+        <v>1.261381996797706</v>
       </c>
       <c r="AJ14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AK14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AL14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AM14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AN14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AO14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AP14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AQ14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AR14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AS14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AT14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AU14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AV14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AW14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AX14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AY14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AZ14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="BA14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>2.165490234005385</v>
-      </c>
-      <c r="T15">
-        <v>-0.6226448159728282</v>
-      </c>
-      <c r="U15">
-        <v>2.755099409670958</v>
-      </c>
-      <c r="V15">
-        <v>2.34299484087257</v>
-      </c>
-      <c r="W15">
-        <v>1.376958470962375</v>
-      </c>
-      <c r="X15">
-        <v>3.145819842658448</v>
-      </c>
-      <c r="Y15">
-        <v>2.594480907596441</v>
-      </c>
-      <c r="Z15">
-        <v>2.799070570134488</v>
-      </c>
-      <c r="AA15">
-        <v>2.127568629379395</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>2.213463536809535</v>
+        <v>3.887076517282306</v>
       </c>
       <c r="AC15">
-        <v>2.115640452469369</v>
+        <v>3.425072141449359</v>
       </c>
       <c r="AD15">
-        <v>2.115640452469369</v>
+        <v>2.71210445726624</v>
       </c>
       <c r="AE15">
-        <v>2.115640452469369</v>
+        <v>2.549404806734712</v>
       </c>
       <c r="AF15">
-        <v>2.115640452469369</v>
+        <v>4.888255652935958</v>
       </c>
       <c r="AG15">
-        <v>2.115640452469369</v>
+        <v>1.314298916225654</v>
       </c>
       <c r="AH15">
-        <v>2.115640452469369</v>
+        <v>-1.376301649685407</v>
       </c>
       <c r="AI15">
-        <v>2.115640452469369</v>
+        <v>0.399474938574329</v>
       </c>
       <c r="AJ15">
-        <v>2.115640452469369</v>
+        <v>2.944732456202548</v>
       </c>
       <c r="AK15">
-        <v>2.115640452469369</v>
+        <v>1.61478104109658</v>
       </c>
       <c r="AL15">
-        <v>2.115640452469369</v>
+        <v>1.879266440112781</v>
       </c>
       <c r="AM15">
-        <v>2.115640452469369</v>
+        <v>1.630705607582295</v>
       </c>
       <c r="AN15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AO15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AP15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AQ15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AR15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AS15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AT15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AU15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AV15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AW15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AX15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AY15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AZ15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="BA15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>2.325987129928708</v>
-      </c>
-      <c r="V16">
-        <v>2.484672112662678</v>
-      </c>
-      <c r="W16">
-        <v>2.554746761760573</v>
-      </c>
-      <c r="X16">
-        <v>3.875106770584158</v>
-      </c>
-      <c r="Y16">
-        <v>2.978856953395592</v>
-      </c>
-      <c r="Z16">
-        <v>3.056075254339996</v>
-      </c>
-      <c r="AA16">
-        <v>3.665688413913726</v>
-      </c>
-      <c r="AB16">
-        <v>4.520465362328063</v>
-      </c>
-      <c r="AC16">
-        <v>4.143226503463837</v>
-      </c>
-      <c r="AD16">
-        <v>4.195393191694419</v>
-      </c>
-      <c r="AE16">
-        <v>4.197154982163109</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>4.186780469526963</v>
+        <v>4.12294193961491</v>
       </c>
       <c r="AG16">
-        <v>4.186780469526963</v>
+        <v>2.775848202764419</v>
       </c>
       <c r="AH16">
-        <v>4.186780469526963</v>
+        <v>1.731249154528713</v>
       </c>
       <c r="AI16">
-        <v>4.186780469526963</v>
+        <v>1.894543511868685</v>
       </c>
       <c r="AJ16">
-        <v>4.186780469526963</v>
+        <v>2.95288809451808</v>
       </c>
       <c r="AK16">
-        <v>4.186780469526963</v>
+        <v>1.61617062332684</v>
       </c>
       <c r="AL16">
-        <v>4.186780469526963</v>
+        <v>-0.5015683214423916</v>
       </c>
       <c r="AM16">
-        <v>4.186780469526963</v>
+        <v>-1.647049671756318</v>
       </c>
       <c r="AN16">
-        <v>4.186780469526963</v>
+        <v>0.7712591263790092</v>
       </c>
       <c r="AO16">
-        <v>4.186780469526963</v>
+        <v>-2.367053688984511</v>
       </c>
       <c r="AP16">
-        <v>4.186780469526963</v>
+        <v>-2.620683231370935</v>
       </c>
       <c r="AQ16">
-        <v>4.186780469526963</v>
+        <v>-2.165543638380429</v>
       </c>
       <c r="AR16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AS16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AT16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AU16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AV16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AW16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AX16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AY16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AZ16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="BA16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>3.576394102512137</v>
-      </c>
-      <c r="Y17">
-        <v>2.792583623342715</v>
-      </c>
-      <c r="Z17">
-        <v>2.427451345440979</v>
-      </c>
-      <c r="AA17">
-        <v>3.126710782028086</v>
-      </c>
-      <c r="AB17">
-        <v>4.124307769579505</v>
-      </c>
-      <c r="AC17">
-        <v>2.872814227731846</v>
-      </c>
-      <c r="AD17">
-        <v>2.652948310315506</v>
-      </c>
-      <c r="AE17">
-        <v>2.017172445889925</v>
-      </c>
-      <c r="AF17">
-        <v>4.479055418855871</v>
-      </c>
-      <c r="AG17">
-        <v>2.407619904801606</v>
-      </c>
-      <c r="AH17">
-        <v>1.666553973046048</v>
-      </c>
-      <c r="AI17">
-        <v>1.261381996797728</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>1.258580382129693</v>
+        <v>2.842245206075966</v>
       </c>
       <c r="AK17">
-        <v>1.258580382129693</v>
+        <v>1.890501236336872</v>
       </c>
       <c r="AL17">
-        <v>1.258580382129693</v>
+        <v>0.6188720259791669</v>
       </c>
       <c r="AM17">
-        <v>1.258580382129693</v>
+        <v>0.5113886578309135</v>
       </c>
       <c r="AN17">
-        <v>1.258580382129693</v>
+        <v>2.690914239437681</v>
       </c>
       <c r="AO17">
-        <v>1.258580382129693</v>
+        <v>-1.23388274936691</v>
       </c>
       <c r="AP17">
-        <v>1.258580382129693</v>
+        <v>-3.531225750971467</v>
       </c>
       <c r="AQ17">
-        <v>1.258580382129693</v>
+        <v>-4.823846530890474</v>
       </c>
       <c r="AR17">
-        <v>1.258580382129693</v>
+        <v>-1.733020510269734</v>
       </c>
       <c r="AS17">
-        <v>1.258580382129693</v>
+        <v>-2.690210378056657</v>
       </c>
       <c r="AT17">
-        <v>1.258580382129693</v>
+        <v>-3.036556262700263</v>
       </c>
       <c r="AU17">
-        <v>1.258580382129693</v>
+        <v>-3.961493391105475</v>
       </c>
       <c r="AV17">
-        <v>1.258580382129693</v>
+        <v>-3.961484026309636</v>
       </c>
       <c r="AW17">
-        <v>1.258580382129693</v>
+        <v>-3.961484026309636</v>
       </c>
       <c r="AX17">
-        <v>1.258580382129693</v>
+        <v>-3.961484026309636</v>
       </c>
       <c r="AY17">
-        <v>1.258580382129693</v>
+        <v>-3.961484026309636</v>
       </c>
       <c r="AZ17">
-        <v>1.258580382129693</v>
+        <v>-3.961484026309636</v>
       </c>
       <c r="BA17">
-        <v>1.258580382129693</v>
+        <v>-3.961484026309636</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>3.887076517282306</v>
-      </c>
-      <c r="AC18">
-        <v>3.425072141449359</v>
-      </c>
-      <c r="AD18">
-        <v>2.712104457266218</v>
-      </c>
-      <c r="AE18">
-        <v>2.549404806734712</v>
-      </c>
-      <c r="AF18">
-        <v>4.888255652935936</v>
-      </c>
-      <c r="AG18">
-        <v>1.314298916225654</v>
-      </c>
-      <c r="AH18">
-        <v>-1.376301649685419</v>
-      </c>
-      <c r="AI18">
-        <v>0.3994749385743512</v>
-      </c>
-      <c r="AJ18">
-        <v>2.944732456202548</v>
-      </c>
-      <c r="AK18">
-        <v>1.614781041096625</v>
-      </c>
-      <c r="AL18">
-        <v>1.879266440112803</v>
-      </c>
-      <c r="AM18">
-        <v>1.630705607582317</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>1.362828756617751</v>
+        <v>1.664347518540765</v>
       </c>
       <c r="AO18">
-        <v>1.362828756617751</v>
+        <v>-0.3452347200403771</v>
       </c>
       <c r="AP18">
-        <v>1.362828756617751</v>
+        <v>-2.559767804943203</v>
       </c>
       <c r="AQ18">
-        <v>1.362828756617751</v>
+        <v>-1.599355436867833</v>
       </c>
       <c r="AR18">
-        <v>1.362828756617751</v>
+        <v>1.276886232005281</v>
       </c>
       <c r="AS18">
-        <v>1.362828756617751</v>
+        <v>-0.5080092691694071</v>
       </c>
       <c r="AT18">
-        <v>1.362828756617751</v>
+        <v>-0.6127369048507636</v>
       </c>
       <c r="AU18">
-        <v>1.362828756617751</v>
+        <v>-3.632744220111894</v>
       </c>
       <c r="AV18">
-        <v>1.362828756617751</v>
+        <v>-0.5744163079740128</v>
       </c>
       <c r="AW18">
-        <v>1.362828756617751</v>
+        <v>-2.862797582711463</v>
       </c>
       <c r="AX18">
-        <v>1.362828756617751</v>
+        <v>-2.953443685011514</v>
       </c>
       <c r="AY18">
-        <v>1.362828756617751</v>
+        <v>-2.939620051521785</v>
       </c>
       <c r="AZ18">
-        <v>1.362828756617751</v>
+        <v>-2.899559879361435</v>
       </c>
       <c r="BA18">
-        <v>1.362828756617751</v>
+        <v>-2.899559879361435</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>4.12294193961491</v>
-      </c>
-      <c r="AG19">
-        <v>2.775848202764419</v>
-      </c>
-      <c r="AH19">
-        <v>1.731249154528713</v>
-      </c>
-      <c r="AI19">
-        <v>1.894543511868663</v>
-      </c>
-      <c r="AJ19">
-        <v>2.952888094518125</v>
-      </c>
-      <c r="AK19">
-        <v>1.616170623326796</v>
-      </c>
-      <c r="AL19">
-        <v>-0.5015683214423805</v>
-      </c>
-      <c r="AM19">
-        <v>-1.647049671756329</v>
-      </c>
-      <c r="AN19">
-        <v>0.7712591263790092</v>
-      </c>
-      <c r="AO19">
-        <v>-2.3670536889845</v>
-      </c>
-      <c r="AP19">
-        <v>-2.620683231370946</v>
-      </c>
-      <c r="AQ19">
-        <v>-2.165543638380452</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>-2.151676542405412</v>
+        <v>0.340541823644247</v>
       </c>
       <c r="AS19">
-        <v>-2.151676542405412</v>
+        <v>-1.55821884461389</v>
       </c>
       <c r="AT19">
-        <v>-2.151676542405412</v>
+        <v>-1.802404442893746</v>
       </c>
       <c r="AU19">
-        <v>-2.151676542405412</v>
+        <v>-3.88801767603163</v>
       </c>
       <c r="AV19">
-        <v>-2.151676542405412</v>
+        <v>-0.6956477387308979</v>
       </c>
       <c r="AW19">
-        <v>-2.151676542405412</v>
+        <v>-2.931248208044468</v>
       </c>
       <c r="AX19">
-        <v>-2.151676542405412</v>
+        <v>-3.846731480588816</v>
       </c>
       <c r="AY19">
-        <v>-2.151676542405412</v>
+        <v>-1.265401163425972</v>
       </c>
       <c r="AZ19">
-        <v>-2.151676542405412</v>
+        <v>-0.1892239049850142</v>
       </c>
       <c r="BA19">
-        <v>-2.151676542405412</v>
+        <v>-1.201318493118475</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>2.842245206075944</v>
-      </c>
-      <c r="AK20">
-        <v>1.890501236336872</v>
-      </c>
-      <c r="AL20">
-        <v>0.6188720259791669</v>
-      </c>
-      <c r="AM20">
-        <v>0.5113886578309135</v>
-      </c>
-      <c r="AN20">
-        <v>2.690914239437681</v>
-      </c>
-      <c r="AO20">
-        <v>-1.23388274936691</v>
-      </c>
-      <c r="AP20">
-        <v>-3.531225750971478</v>
-      </c>
-      <c r="AQ20">
-        <v>-4.823846530890464</v>
-      </c>
-      <c r="AR20">
-        <v>-1.733020510269734</v>
-      </c>
-      <c r="AS20">
-        <v>-2.690210378056679</v>
-      </c>
-      <c r="AT20">
-        <v>-3.036556262700274</v>
-      </c>
-      <c r="AU20">
-        <v>-3.961493391105464</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>-3.961484026309647</v>
+        <v>-1.443039577388505</v>
       </c>
       <c r="AW20">
-        <v>-3.961484026309647</v>
+        <v>-2.615515430291993</v>
       </c>
       <c r="AX20">
-        <v>-3.961484026309647</v>
+        <v>-4.237512751019867</v>
       </c>
       <c r="AY20">
-        <v>-3.961484026309647</v>
+        <v>-2.64937131332158</v>
       </c>
       <c r="AZ20">
-        <v>-3.961484026309647</v>
+        <v>-1.765469626114691</v>
       </c>
       <c r="BA20">
-        <v>-3.961484026309647</v>
+        <v>-2.375407956079478</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>1.664347518540765</v>
-      </c>
-      <c r="AO21">
-        <v>-0.3452347200403882</v>
-      </c>
-      <c r="AP21">
-        <v>-2.55976780494318</v>
-      </c>
-      <c r="AQ21">
-        <v>-1.599355436867833</v>
-      </c>
-      <c r="AR21">
-        <v>1.276886232005281</v>
-      </c>
-      <c r="AS21">
-        <v>-0.5080092691693849</v>
-      </c>
-      <c r="AT21">
-        <v>-0.6127369048507636</v>
-      </c>
-      <c r="AU21">
-        <v>-3.632744220111905</v>
-      </c>
-      <c r="AV21">
-        <v>-0.5744163079740239</v>
-      </c>
-      <c r="AW21">
-        <v>-2.862797582711474</v>
-      </c>
-      <c r="AX21">
-        <v>-2.953443685011514</v>
-      </c>
-      <c r="AY21">
-        <v>-2.939620051521785</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>-2.899559879361424</v>
+        <v>-2.020655721617381</v>
       </c>
       <c r="BA21">
-        <v>-2.899559879361424</v>
+        <v>-1.706827370204211</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>0.340541823644247</v>
-      </c>
-      <c r="AS22">
-        <v>-1.558218844613901</v>
-      </c>
-      <c r="AT22">
-        <v>-1.802404442893735</v>
-      </c>
-      <c r="AU22">
-        <v>-3.888017676031608</v>
-      </c>
-      <c r="AV22">
-        <v>-0.6956477387308868</v>
-      </c>
-      <c r="AW22">
-        <v>-2.931248208044457</v>
-      </c>
-      <c r="AX22">
-        <v>-3.846731480588816</v>
-      </c>
-      <c r="AY22">
-        <v>-1.265401163425972</v>
-      </c>
-      <c r="AZ22">
-        <v>-0.1892239049850031</v>
-      </c>
-      <c r="BA22">
-        <v>-1.201318493118486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>-1.443039577388472</v>
-      </c>
-      <c r="AW23">
-        <v>-2.615515430291959</v>
-      </c>
-      <c r="AX23">
-        <v>-4.237512751019878</v>
-      </c>
-      <c r="AY23">
-        <v>-2.649371313321569</v>
-      </c>
-      <c r="AZ23">
-        <v>-1.765469626114691</v>
-      </c>
-      <c r="BA23">
-        <v>-2.375407956079445</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>-2.020655721617404</v>
-      </c>
-      <c r="BA24">
-        <v>-1.7068273702042</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AVERAGE_10_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BA3">
         <v>-3.712113773657133</v>
       </c>
+      <c r="BB3">
+        <v>-3.712113773657133</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -856,8 +862,11 @@
       <c r="BA4">
         <v>2.363997455008704</v>
       </c>
+      <c r="BB4">
+        <v>2.363997455008704</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -1008,8 +1017,11 @@
       <c r="BA5">
         <v>6.087058041562399</v>
       </c>
+      <c r="BB5">
+        <v>6.087058041562399</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="BA6">
         <v>3.831642495756782</v>
       </c>
+      <c r="BB6">
+        <v>3.831642495756782</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1294,8 +1309,11 @@
       <c r="BA7">
         <v>-0.492746714819392</v>
       </c>
+      <c r="BB7">
+        <v>-0.492746714819392</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1428,8 +1446,11 @@
       <c r="BA8">
         <v>4.135644887697842</v>
       </c>
+      <c r="BB8">
+        <v>4.135644887697842</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1556,8 +1577,11 @@
       <c r="BA9">
         <v>-0.8017097776176652</v>
       </c>
+      <c r="BB9">
+        <v>-0.8017097776176652</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1678,8 +1702,11 @@
       <c r="BA10">
         <v>2.496356089727558</v>
       </c>
+      <c r="BB10">
+        <v>2.496356089727558</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="BA11">
         <v>2.955681454251202</v>
       </c>
+      <c r="BB11">
+        <v>2.955681454251202</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1904,8 +1934,11 @@
       <c r="BA12">
         <v>2.115640452469392</v>
       </c>
+      <c r="BB12">
+        <v>2.115640452469392</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2008,8 +2041,11 @@
       <c r="BA13">
         <v>4.186780469526941</v>
       </c>
+      <c r="BB13">
+        <v>4.186780469526941</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2103,8 +2139,11 @@
       <c r="BA14">
         <v>1.25858038212967</v>
       </c>
+      <c r="BB14">
+        <v>1.25858038212967</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2186,8 +2225,11 @@
       <c r="BA15">
         <v>1.362828756617751</v>
       </c>
+      <c r="BB15">
+        <v>1.362828756617751</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2257,8 +2299,11 @@
       <c r="BA16">
         <v>-2.151676542405401</v>
       </c>
+      <c r="BB16">
+        <v>-2.151676542405401</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2316,8 +2361,11 @@
       <c r="BA17">
         <v>-3.961484026309636</v>
       </c>
+      <c r="BB17">
+        <v>-3.961484026309636</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2363,8 +2411,11 @@
       <c r="BA18">
         <v>-2.899559879361435</v>
       </c>
+      <c r="BB18">
+        <v>-2.899559879361435</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2398,8 +2449,11 @@
       <c r="BA19">
         <v>-1.201318493118475</v>
       </c>
+      <c r="BB19">
+        <v>-0.7200474048664085</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="BA20">
         <v>-2.375407956079478</v>
       </c>
+      <c r="BB20">
+        <v>-2.181280391105744</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="BA21">
         <v>-1.706827370204211</v>
       </c>
+      <c r="BB21">
+        <v>-2.104371875253941</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
